--- a/doc/cme435_proj_testcases_thomas.xlsx
+++ b/doc/cme435_proj_testcases_thomas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570" activeTab="1"/>
+    <workbookView windowWidth="22770" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Design Features" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>Section</t>
   </si>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">Random </t>
   </si>
   <si>
-    <t>Test the input of 1000 packets of fully randomized inputs. No random reset applied</t>
+    <t>Test the input of 10000 fully randomized inputs, with random reset applied. Addresses are constrained from 0-7 so that the addresses have room to be changed but there isn't so much room for different addresses that the input sent in is always sent to an invalid address.</t>
   </si>
   <si>
     <t>1.3, 1.4, 2.1, 2.3-2.10, 3.1-3.3</t>
   </si>
   <si>
-    <t>Random Reset</t>
-  </si>
-  <si>
-    <t>Test the input of 1000 packets of fully randomized inputs, with random resets applied</t>
+    <t>Random No Reset</t>
+  </si>
+  <si>
+    <t>Test the input of 10000 fully randomized inputs, with no random resets applied. Addresses are constrained from 0-7 so that the addresses have room to be changed but there isn't so much room for different addresses that the input sent in is always sent to an invalid address.</t>
   </si>
   <si>
     <t>1.1, 1.2</t>
@@ -311,55 +311,22 @@
     <t>Sanity Check</t>
   </si>
   <si>
+    <t>A basic test with a few random inputs to verify basic operation of the DUT</t>
+  </si>
+  <si>
+    <t>2.1, 2.2, 2.9</t>
+  </si>
+  <si>
+    <t>Sanity Check Directed</t>
+  </si>
+  <si>
     <t>A basic test with a few directed inputs to verify basic operation of the DUT</t>
   </si>
   <si>
-    <t>2.1, 2.2, 2.9</t>
-  </si>
-  <si>
-    <t>Invalid Addresses</t>
-  </si>
-  <si>
-    <t>Test the input of addr_in when it has inputs that are greater than 3.</t>
-  </si>
-  <si>
-    <t>Overlapping Data</t>
-  </si>
-  <si>
-    <t>Test the response of the DUT when data_out is applied with the same data on all ports.</t>
-  </si>
-  <si>
-    <t>2.1, 2.5, 2.6, 2.7, 2.8</t>
-  </si>
-  <si>
-    <t>Test wr_en</t>
-  </si>
-  <si>
-    <t>Test that the DUT only accepts new data when wr_en is enabled.</t>
-  </si>
-  <si>
-    <t>Test rd_en</t>
-  </si>
-  <si>
-    <t>Test  that the DUT only pops data from the FIFO when Rd_en is enabled.</t>
-  </si>
-  <si>
-    <t>Test data_rdy</t>
-  </si>
-  <si>
-    <t>Test that data_rdy is asserted when the DUT has data ready to be read at the ouput, and is deasserted when the DUT's data has been read or when there is no new data to be read.</t>
-  </si>
-  <si>
-    <t>2.5, 2.6</t>
-  </si>
-  <si>
-    <t>Test data_rcv</t>
-  </si>
-  <si>
-    <t>Test that data_rcv is asserted when the DUT can take more data, and is deasserted when the DUT is not able to take in more data</t>
-  </si>
-  <si>
-    <t>2.7, 2.8</t>
+    <t>All Addresses</t>
+  </si>
+  <si>
+    <t>Testing the input of 10000 fully randomized inputs, with random reset applied. Addresses are constrained from 0x0008 to 0xFFFF so that the addresses not covered in tests 1.1 and 1.2 are covered. Addresses are only allowed to be valid.</t>
   </si>
   <si>
     <t>Priority Testing</t>
@@ -368,16 +335,13 @@
     <t>Overlapping Addresses</t>
   </si>
   <si>
-    <t>Test some directed inputs with addr_in having overlapping addresses. No priority manipulation should be applied.</t>
+    <t>Test 1000 random packets with with addr_in having overlapping addresses. No priority manipulation is applied.</t>
   </si>
   <si>
     <t>4.1, 4.2</t>
   </si>
   <si>
-    <t>New Priority Assignment</t>
-  </si>
-  <si>
-    <t>Test some directed inputs with priority values manipulated to test whether the priority manipulation works or not.</t>
+    <t>Test 1000 random packets with port changing disabled and priority changing enabled</t>
   </si>
   <si>
     <t>4.1, 4.3, 4.4, 4.5, 4.6, 4.7</t>
@@ -386,10 +350,10 @@
     <t>FIFO Testing</t>
   </si>
   <si>
-    <t>Test FIFO</t>
-  </si>
-  <si>
-    <t>Test the FIFO related signals work respectively by filling up a FIFO to full then emptying it out. Check that FIFO_empty is asserted when the FIFO is empty, FIFO_AE is asserted when the FIFO is 25% full, FIFO_AF is asserted when the FIFO is 75% full, and that FIFO_full is asserted when the FIFO is completely full. Test what happens when data is attempted to be added to a full FIFO.</t>
+    <t>FIFO0, FIFO1, FIFO2, FIFO3</t>
+  </si>
+  <si>
+    <t>Test the FIFO related signals work respectively by filling up a FIFO to full then emptying it out. Check that FIFO_empty is asserted when the FIFO is empty, FIFO_AE is asserted when the FIFO is 25% full, FIFO_AF is asserted when the FIFO is 75% full, and that FIFO_full is asserted when the FIFO is completely full. Test what happens when data is attempted to be added to a full FIFO. One test case for each port (fifo).</t>
   </si>
   <si>
     <t>5.1, 5.2, 5.3, 5.4, 5.5, 5.6</t>
@@ -398,7 +362,7 @@
     <t>Output Port Manipulation</t>
   </si>
   <si>
-    <t>Test Output Port Manipulation</t>
+    <t>Ports</t>
   </si>
   <si>
     <t>Check that the address manipulation of output ports works with the manipulation of port_en, port_wr, port_sel, port_addr.</t>
@@ -413,13 +377,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,15 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,8 +423,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,13 +448,6 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -507,14 +471,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,13 +479,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,7 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,8 +506,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,15 +523,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,7 +538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,43 +559,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,133 +709,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,21 +750,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -820,11 +762,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,32 +818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -879,16 +827,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -896,152 +853,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1049,12 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
@@ -1429,7 +1380,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="10"/>
+    <col min="1" max="1" width="9.14" style="8"/>
     <col min="2" max="2" width="13.14" style="2" customWidth="true"/>
     <col min="3" max="3" width="41.14" style="2" customWidth="true"/>
     <col min="4" max="4" width="9.14" style="2"/>
@@ -1441,57 +1392,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1.1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1500,10 +1451,10 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1.2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1512,10 +1463,10 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>1.3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1524,10 +1475,10 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>1.4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1536,22 +1487,22 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="12:12">
-      <c r="L7" s="9"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>2.1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1560,10 +1511,10 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>2.2</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1572,10 +1523,10 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>2.3</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1584,10 +1535,10 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>2.4</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1596,10 +1547,10 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>2.5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1608,10 +1559,10 @@
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>2.6</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1620,10 +1571,10 @@
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>2.7</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1632,10 +1583,10 @@
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>2.8</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1644,10 +1595,10 @@
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>2.9</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1656,10 +1607,10 @@
       <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>2.1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1668,23 +1619,22 @@
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="12:12">
-      <c r="L19" s="9"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>3.1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1693,10 +1643,10 @@
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>3.2</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1705,10 +1655,10 @@
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>3.3</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1717,23 +1667,22 @@
       <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="12:12">
-      <c r="L24" s="9"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>4.1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1742,10 +1691,10 @@
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>4.2</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1754,10 +1703,10 @@
       <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>4.3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1766,10 +1715,10 @@
       <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>4.4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1778,10 +1727,10 @@
       <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="10">
+      <c r="A30" s="8">
         <v>4.5</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1790,10 +1739,10 @@
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="9"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>4.6</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1802,10 +1751,10 @@
       <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="10">
+      <c r="A32" s="8">
         <v>4.7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1814,23 +1763,22 @@
       <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="9"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="12:12">
-      <c r="L33" s="9"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="10">
+      <c r="A34" s="8">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="L34" s="9"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>5.1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1839,10 +1787,10 @@
       <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="10">
+      <c r="A36" s="8">
         <v>5.2</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1851,10 +1799,10 @@
       <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="9"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="10">
+      <c r="A37" s="8">
         <v>5.3</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1863,10 +1811,10 @@
       <c r="C37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="9"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="10">
+      <c r="A38" s="8">
         <v>5.4</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1875,10 +1823,10 @@
       <c r="C38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L38" s="9"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>5.5</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1887,10 +1835,10 @@
       <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="9"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
         <v>5.6</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1899,23 +1847,22 @@
       <c r="C40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="12:12">
-      <c r="L41" s="9"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="10">
+      <c r="A42" s="8">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="L42" s="9"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="10">
+      <c r="A43" s="8">
         <v>6.1</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1924,10 +1871,10 @@
       <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L43" s="9"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="10">
+      <c r="A44" s="8">
         <v>6.2</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1936,10 +1883,10 @@
       <c r="C44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="9"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="10">
+      <c r="A45" s="8">
         <v>6.3</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1948,172 +1895,172 @@
       <c r="C45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L45" s="9"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="12:12">
-      <c r="L46" s="9"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="12:12">
-      <c r="L47" s="9"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="12:12">
-      <c r="L48" s="9"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="12:12">
-      <c r="L49" s="9"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="12:12">
-      <c r="L50" s="9"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="12:12">
-      <c r="L51" s="9"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="12:12">
-      <c r="L52" s="9"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="12:12">
-      <c r="L53" s="9"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="12:12">
-      <c r="L54" s="9"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="12:12">
-      <c r="L55" s="9"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="12:12">
-      <c r="L56" s="9"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="12:12">
-      <c r="L57" s="9"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="12:12">
-      <c r="L58" s="9"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="12:12">
-      <c r="L59" s="9"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="12:12">
-      <c r="L60" s="9"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="12:12">
-      <c r="L61" s="9"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="12:12">
-      <c r="L62" s="9"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="12:12">
-      <c r="L63" s="9"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="12:12">
-      <c r="L64" s="9"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="12:12">
-      <c r="L65" s="9"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="12:12">
-      <c r="L66" s="9"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="12:12">
-      <c r="L67" s="9"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="12:12">
-      <c r="L68" s="9"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="12:12">
-      <c r="L69" s="9"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="12:12">
-      <c r="L70" s="9"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="12:12">
-      <c r="L71" s="9"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="12:12">
-      <c r="L72" s="9"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="12:12">
-      <c r="L73" s="9"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="12:12">
-      <c r="L74" s="9"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="12:12">
-      <c r="L75" s="9"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="12:12">
-      <c r="L76" s="9"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="12:12">
-      <c r="L77" s="9"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="12:12">
-      <c r="L78" s="9"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="12:12">
-      <c r="L79" s="9"/>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="12:12">
-      <c r="L80" s="9"/>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="12:12">
-      <c r="L81" s="9"/>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="12:12">
-      <c r="L82" s="9"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="12:12">
-      <c r="L83" s="9"/>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="12:12">
-      <c r="L84" s="9"/>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="12:12">
-      <c r="L85" s="9"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="12:12">
-      <c r="L86" s="9"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" spans="12:12">
-      <c r="L87" s="9"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="12:12">
-      <c r="L88" s="9"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="12:12">
-      <c r="L89" s="9"/>
+      <c r="L89" s="7"/>
     </row>
     <row r="90" spans="12:12">
-      <c r="L90" s="9"/>
+      <c r="L90" s="7"/>
     </row>
     <row r="91" spans="12:12">
-      <c r="L91" s="9"/>
+      <c r="L91" s="7"/>
     </row>
     <row r="92" spans="12:12">
-      <c r="L92" s="9"/>
+      <c r="L92" s="7"/>
     </row>
     <row r="93" spans="12:12">
-      <c r="L93" s="9"/>
+      <c r="L93" s="7"/>
     </row>
     <row r="94" spans="12:12">
-      <c r="L94" s="9"/>
+      <c r="L94" s="7"/>
     </row>
     <row r="95" spans="12:12">
-      <c r="L95" s="9"/>
+      <c r="L95" s="7"/>
     </row>
     <row r="96" spans="12:12">
-      <c r="L96" s="9"/>
+      <c r="L96" s="7"/>
     </row>
     <row r="97" spans="12:12">
-      <c r="L97" s="9"/>
+      <c r="L97" s="7"/>
     </row>
     <row r="98" spans="12:12">
-      <c r="L98" s="9"/>
+      <c r="L98" s="7"/>
     </row>
     <row r="99" spans="12:12">
-      <c r="L99" s="9"/>
+      <c r="L99" s="7"/>
     </row>
     <row r="100" spans="12:12">
-      <c r="L100" s="9"/>
+      <c r="L100" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2144,9 +2091,9 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2166,55 +2113,55 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" ht="31.5" spans="1:12">
-      <c r="A3" s="6">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" ht="78.75" spans="1:12">
+      <c r="A3" s="1">
         <v>1.1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2226,11 +2173,11 @@
       <c r="D3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" ht="31.5" spans="1:12">
-      <c r="A4" s="6">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" ht="78.75" spans="1:12">
+      <c r="A4" s="1">
         <v>1.2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2242,26 +2189,25 @@
       <c r="D4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="11:12">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" ht="31.5" spans="1:12">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>2.1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2273,11 +2219,11 @@
       <c r="D7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" ht="31.5" spans="1:12">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>2.2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2286,13 +2232,13 @@
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="1">
-        <v>2.2</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" ht="31.5" spans="1:12">
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" ht="78.75" spans="1:12">
       <c r="A9" s="1">
         <v>2.3</v>
       </c>
@@ -2303,580 +2249,453 @@
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="11:12">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" ht="31.5" spans="1:12">
-      <c r="A10" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" ht="47.25" spans="1:12">
+      <c r="A12" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" ht="31.5" spans="1:12">
-      <c r="A11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" ht="31.5" spans="1:12">
+      <c r="A13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" ht="63" spans="1:12">
-      <c r="A12" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="11:12">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" ht="126" spans="1:12">
+      <c r="A16" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" ht="47.25" spans="1:12">
-      <c r="A13" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" ht="31.5" spans="1:12">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="11:12">
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" ht="47.25" spans="1:12">
+      <c r="A19" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" ht="47.25" spans="1:12">
-      <c r="A16" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" ht="47.25" spans="1:12">
-      <c r="A17" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="6"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" ht="110.25" spans="1:12">
-      <c r="A20" s="6">
-        <v>4.1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="6"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" ht="31.5" spans="1:12">
-      <c r="A22" s="6">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" ht="47.25" spans="1:12">
-      <c r="A23" s="6">
-        <v>5.1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="6"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="6"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="6"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="6"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="6"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="6"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="6"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="6"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="6"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="6"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="6"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="6"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="6"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="6"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="6"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="6"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="6"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="6"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="6"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="6"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="6"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="6"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="6"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="6"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="6"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="6"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="6"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="6"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="6"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="6"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="6"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="6"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="6"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="6"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="6"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="6"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="6"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="6"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="6"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="6"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="6"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="6"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="6"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="6"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="6"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="6"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="6"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="6"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="6"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="6"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="6"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="6"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="6"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="6"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="6"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="6"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="6"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="6"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="6"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="6"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="6"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="6"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="6"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="6"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="6"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="6"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="6"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="6"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="11:12">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="11:12">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="11:12">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="11:12">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="11:12">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="11:12">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="11:12">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="11:12">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="11:12">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="11:12">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="11:12">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="11:12">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="11:12">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="11:12">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="11:12">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="11:12">
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="11:12">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="11:12">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="11:12">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="11:12">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="11:12">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="11:12">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="11:12">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="11:12">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="11:12">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="11:12">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="11:12">
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="11:12">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="11:12">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="11:12">
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="11:12">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="11:12">
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="11:12">
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="11:12">
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="11:12">
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="11:12">
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="11:12">
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="11:12">
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="11:12">
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="11:12">
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="11:12">
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="11:12">
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="11:12">
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="11:12">
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="11:12">
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="11:12">
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="11:12">
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="11:12">
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="11:12">
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="11:12">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="11:12">
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="11:12">
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="11:12">
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="11:12">
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="11:12">
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="11:12">
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="11:12">
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="11:12">
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="11:12">
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="11:12">
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="11:12">
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="11:12">
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="11:12">
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="11:12">
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="11:12">
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="11:12">
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="11:12">
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="11:12">
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="11:12">
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="11:12">
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="11:12">
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="11:12">
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="11:12">
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="11:12">
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="11:12">
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="11:12">
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="11:12">
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M100">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L100">
       <formula1>"PASS, FAIL"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K100">
       <formula1>44501</formula1>
       <formula2>44553</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M100">
-      <formula1>1</formula1>
-      <formula2>100</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J100">
       <formula1>"1,2,3"</formula1>
